--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t xml:space="preserve">Table-1.1</t>
   </si>
@@ -332,10 +332,19 @@
     <t xml:space="preserve">Top English speaking country</t>
   </si>
   <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Second English speaking country</t>
   </si>
   <si>
+    <t xml:space="preserve">GBR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Third English speaking country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND</t>
   </si>
   <si>
     <t xml:space="preserve">Table - 5.1</t>
@@ -787,15 +796,15 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.7692307692308"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -923,8 +932,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.2753036437247"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1044,14 +1053,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2793522267206"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1090,25 +1099,31 @@
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1142,23 +1157,23 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.4858299595142"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="24"/>
     </row>
@@ -1168,7 +1183,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -1177,19 +1192,19 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1208,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1219,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1230,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1241,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1252,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1263,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1274,7 +1289,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1285,7 +1300,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1296,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>

--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t xml:space="preserve">Table-1.1</t>
   </si>
@@ -374,12 +374,24 @@
     <t xml:space="preserve">Top Sector name (no. of investment-wise)</t>
   </si>
   <si>
+    <t xml:space="preserve">Others</t>
+  </si>
+  <si>
     <t xml:space="preserve">Second Sector name (no. of investment-wise)</t>
   </si>
   <si>
+    <t xml:space="preserve">Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">News, Search and Messaging</t>
+  </si>
+  <si>
     <t xml:space="preserve">Third Sector name (no. of investment-wise)</t>
   </si>
   <si>
+    <t xml:space="preserve">Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of investments in top sector (3)</t>
   </si>
   <si>
@@ -392,7 +404,25 @@
     <t xml:space="preserve">For point 3 (top sector count-wise), which company received the highest investment?</t>
   </si>
   <si>
+    <t xml:space="preserve">/organization/social-finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/oneweb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/flipkart</t>
+  </si>
+  <si>
     <t xml:space="preserve">For point 4 (second best sector count-wise), which company received the highest investment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/freescale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/immunocore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/quikr-india</t>
   </si>
 </sst>
 </file>
@@ -796,15 +826,15 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.7692307692308"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -932,8 +962,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7004048582996"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1059,8 +1089,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.7408906882591"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1157,17 +1187,17 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1207,115 +1237,175 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="n">
         <v>1</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="30" t="n">
+        <v>33526</v>
+      </c>
+      <c r="D5" s="30" t="n">
+        <v>1916</v>
+      </c>
+      <c r="E5" s="30" t="n">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="n">
         <v>2</v>
       </c>
       <c r="B6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="30" t="n">
+        <v>392237581395</v>
+      </c>
+      <c r="D6" s="30" t="n">
+        <v>18924390319</v>
+      </c>
+      <c r="E6" s="30" t="n">
+        <v>13537981235</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="n">
         <v>3</v>
       </c>
       <c r="B7" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="n">
         <v>4</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="n">
         <v>6</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+      <c r="C10" s="30" t="n">
+        <v>8243</v>
+      </c>
+      <c r="D10" s="30" t="n">
+        <v>507</v>
+      </c>
+      <c r="E10" s="30" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="C11" s="30" t="n">
+        <v>7849</v>
+      </c>
+      <c r="D11" s="30" t="n">
+        <v>433</v>
+      </c>
+      <c r="E11" s="30" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="n">
         <v>8</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="C12" s="30" t="n">
+        <v>5156</v>
+      </c>
+      <c r="D12" s="30" t="n">
+        <v>318</v>
+      </c>
+      <c r="E12" s="30" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="n">
         <v>9</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="n">
         <v>10</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1342,7 +1432,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E14">
+  <conditionalFormatting sqref="A5:B14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1361,6 +1451,366 @@
         <cfvo type="max" val="0"/>
         <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -380,16 +380,16 @@
     <t xml:space="preserve">Second Sector name (no. of investment-wise)</t>
   </si>
   <si>
+    <t xml:space="preserve">Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third Sector name (no. of investment-wise)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cleantech / Semiconductors</t>
   </si>
   <si>
     <t xml:space="preserve">News, Search and Messaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Sector name (no. of investment-wise)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social, Finance, Analytics, Advertising</t>
   </si>
   <si>
     <t xml:space="preserve">Number of investments in top sector (3)</t>
@@ -833,8 +833,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -962,8 +962,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.1295546558704"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1089,8 +1089,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.165991902834"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1188,16 +1188,16 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -1245,13 +1245,13 @@
         <v>36</v>
       </c>
       <c r="C5" s="30" t="n">
-        <v>33526</v>
+        <v>12063</v>
       </c>
       <c r="D5" s="30" t="n">
-        <v>1916</v>
+        <v>621</v>
       </c>
       <c r="E5" s="30" t="n">
-        <v>745</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,13 +1262,13 @@
         <v>37</v>
       </c>
       <c r="C6" s="30" t="n">
-        <v>392237581395</v>
+        <v>107757097294</v>
       </c>
       <c r="D6" s="30" t="n">
-        <v>18924390319</v>
+        <v>5379078691</v>
       </c>
       <c r="E6" s="30" t="n">
-        <v>13537981235</v>
+        <v>2949543602</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,7 +1288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="n">
         <v>4</v>
       </c>
@@ -1302,21 +1302,21 @@
         <v>41</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="n">
         <v>5</v>
       </c>
       <c r="B9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="D9" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>44</v>
@@ -1454,8 +1454,272 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1467,43 +1731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1515,7 +1743,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1527,151 +1779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1683,19 +1791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1707,102 +1803,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -404,25 +404,25 @@
     <t xml:space="preserve">For point 3 (top sector count-wise), which company received the highest investment?</t>
   </si>
   <si>
-    <t xml:space="preserve">/organization/social-finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/organization/oneweb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/organization/flipkart</t>
+    <t xml:space="preserve">/organization/virtustream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/electric-cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/firstcry-com</t>
   </si>
   <si>
     <t xml:space="preserve">For point 4 (second best sector count-wise), which company received the highest investment?</t>
   </si>
   <si>
-    <t xml:space="preserve">/organization/freescale </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/organization/immunocore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/organization/quikr-india</t>
+    <t xml:space="preserve">/organization/shotspotter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/celltick-technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/organization/manthan-systems</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1502,8 +1502,272 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1515,67 +1779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1587,67 +1791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1659,150 +1803,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min" val="0"/>
